--- a/config/data/杂项.xlsx
+++ b/config/data/杂项.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20400" windowHeight="8490"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>maliu</author>
-    <author>TK</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0">
@@ -66,18 +65,18 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>TK:</t>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -92,18 +91,18 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>TK:</t>
+    <comment ref="C4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -118,18 +117,18 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>TK:</t>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -144,18 +143,18 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>TK:</t>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -170,18 +169,18 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>TK:</t>
+    <comment ref="B6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -196,18 +195,18 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>TK:</t>
+    <comment ref="B7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -222,18 +221,18 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>TK:</t>
+    <comment ref="B8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -248,18 +247,18 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>TK:</t>
+    <comment ref="B9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -271,6 +270,110 @@
           </rPr>
           <t xml:space="preserve">
 技能2购买价格</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+战斗胜利时间</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+单位秒</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+胜利获得星数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+代表对应时间段内可获得星星比例，如当关12星，对应算法为12/3*3=12,12/3*2=8等</t>
         </r>
       </text>
     </comment>
@@ -279,7 +382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>comment</t>
   </si>
@@ -297,73 +400,107 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>val</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>openDiCost</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>20000000/50000000/100000000/150000000/200000000/250000000/300000000/350000000/400000000/450000000/500000000/600000000/700000000/800000000/900000000/1000000000/1100000000/1200000000/1300000000/1400000000/1500000000/1600000000/1700000000/1800000000/1900000000/2000000000/2100000000/2200000000/2300000000/2400000000/2500000000/2600000000/2700000000/2800000000/2900000000/3000000000/3100000000/3200000000/3300000000/3400000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>diUpLevelCost</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>500/1000/1500/2000/2500/3000/3500/4000/4500/5000/5500/6000/6500/7000/7500/8000/8500/9000/9500/10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>diUpLevelUpVal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>0.05/0.1/0.15/0.2/0.25/0.3/0.35/0.4/0.45/0.5/0.55/0.6/0.65/0.7/0.75/0.8/0.85/0.9/0.95/1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>skill1UpLevelCost</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>skill1UpLevelUpVal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>skill2Cost</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>val</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill1UpLevelUpVal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500/1000/1500/2000/2500/3000/3500/4000/4500/5000/5500/6000/6500/7000/7500/8000/8500/9000/9500/10000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000000/200000000/400000000/800000000/1200000000/1600000000/2000000000/2400000000/3000000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000000/50000000/100000000/150000000/200000000/250000000/300000000/350000000/400000000/450000000/500000000/600000000/700000000/800000000/900000000/1000000000/1100000000/1200000000/1300000000/1400000000/1500000000/1600000000/1700000000/1800000000/1900000000/2000000000/2100000000/2200000000/2300000000/2400000000/2500000000/2600000000/2700000000/2800000000/2900000000/3000000000/3100000000/3200000000/3300000000/3400000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.05/0.1/0.15/0.2/0.25/0.3/0.35/0.4/0.45/0.5/0.55/0.6/0.65/0.7/0.75/0.8/0.85/0.9/0.95/1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1/0.15/0.2/0.25/0.3/0.35/0.4/0.45/0.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>30/45/60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05/0.1/0.15/0.2/0.25/0.3/0.35/0.4/0.45/0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/50000000/200000000/400000000/800000000/1200000000/1600000000/2000000000/2400000000/3000000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/2/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fightStarTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fightStarRandom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="7">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -377,10 +514,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -459,45 +597,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -507,7 +646,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -552,71 +691,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -749,8 +886,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:shade val="99000"/>
                 <a:satMod val="350000"/>
-                <a:shade val="99000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -786,86 +923,43 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="_h" fmla="val 21600"/>
-            <a:gd name="_w" fmla="val 21600"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600"/>
-          </a:pathLst>
-        </a:custGeom>
-        <a:gradFill rotWithShape="0">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="739CC3"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="200000"/>
-        </a:ln>
-      </a:spPr>
-      <a:bodyPr/>
-      <a:lstStyle/>
-    </a:spDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="103.375" customWidth="1"/>
-    <col min="4" max="6" width="11.25" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="93.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
       <c r="A2" s="8"/>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -873,102 +967,114 @@
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7" t="s">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C9" s="1">
+        <v>3000000</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
+    <row r="11" spans="1:3" ht="15" customHeight="1">
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/data/杂项.xlsx
+++ b/config/data/杂项.xlsx
@@ -416,10 +416,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>500/1000/1500/2000/2500/3000/3500/4000/4500/5000/5500/6000/6500/7000/7500/8000/8500/9000/9500/10000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>diUpLevelUpVal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -462,6 +458,10 @@
   <si>
     <t>fightStarRandom</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500/1000/1500/2000/2500/3000/3500/4000/4500/5000/5500/6000/6500/7000/7500/8000/8500/9000/9500/10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -626,10 +626,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -933,7 +933,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -944,7 +944,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -953,7 +953,7 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A2" s="8"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -985,40 +985,40 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>3000000</v>
@@ -1027,18 +1027,18 @@
     <row r="10" spans="1:3" ht="14.25" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1"/>

--- a/config/data/杂项.xlsx
+++ b/config/data/杂项.xlsx
@@ -436,10 +436,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>30/45/60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0.05/0.1/0.15/0.2/0.25/0.3/0.35/0.4/0.45/0.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -461,6 +457,10 @@
   </si>
   <si>
     <t>500/1000/1500/2000/2500/3000/3500/4000/4500/5000/5500/6000/6500/7000/7500/8000/8500/9000/9500/10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20/40/60</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -933,7 +933,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1">
@@ -1003,7 +1003,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1">
@@ -1012,7 +1012,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1">
@@ -1027,18 +1027,18 @@
     <row r="10" spans="1:3" ht="14.25" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1"/>

--- a/config/data/杂项.xlsx
+++ b/config/data/杂项.xlsx
@@ -125,6 +125,54 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+购买地块所需晶石</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+晶石</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
@@ -143,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0">
+    <comment ref="C6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -273,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0">
+    <comment ref="B11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -299,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0">
+    <comment ref="C11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -325,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="B12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0">
+    <comment ref="C12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -382,7 +430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>comment</t>
   </si>
@@ -408,18 +456,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20000000/50000000/100000000/150000000/200000000/250000000/300000000/350000000/400000000/450000000/500000000/600000000/700000000/800000000/900000000/1000000000/1100000000/1200000000/1300000000/1400000000/1500000000/1600000000/1700000000/1800000000/1900000000/2000000000/2100000000/2200000000/2300000000/2400000000/2500000000/2600000000/2700000000/2800000000/2900000000/3000000000/3100000000/3200000000/3300000000/3400000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>diUpLevelCost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>diUpLevelUpVal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0.05/0.1/0.15/0.2/0.25/0.3/0.35/0.4/0.45/0.5/0.55/0.6/0.65/0.7/0.75/0.8/0.85/0.9/0.95/1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -437,10 +473,6 @@
   </si>
   <si>
     <t>0.05/0.1/0.15/0.2/0.25/0.3/0.35/0.4/0.45/0.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/50000000/200000000/400000000/800000000/1200000000/1600000000/2000000000/2400000000/3000000000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -456,12 +488,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>20/40/60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>diUpLevelCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>500/1000/1500/2000/2500/3000/3500/4000/4500/5000/5500/6000/6500/7000/7500/8000/8500/9000/9500/10000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20/40/60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>diUpLevelUpVal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000/50000000/100000000/150000000/200000000/250000000/300000000/350000000/400000000/450000000/500000000/600000000/700000000/800000000/900000000/1000000000/1100000000/1200000000/1300000000/1400000000/1500000000/1600000000/1700000000/1800000000/1900000000/2000000000/2100000000/2200000000/2300000000/2400000000/2500000000/2600000000/2700000000/2800000000/2900000000/3000000000/3100000000/3200000000/3300000000/3400000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/100000000/1000000000/2000000000/4000000000/8000000000/16000000000/32000000000/64000000000/100000000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>openDiCostMi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100/200/300/400/500/600/700/800/900/1000/1100/1200/1300/1400/1500/1600/1700/1800/1900/2000/2100/2200/2300/2400/2500/2600/2700/2800/2900/3000/3100/3200/3300/3400/3500/3600/3700/3800/3900/4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -471,7 +527,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +575,19 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -933,7 +1002,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -976,72 +1045,79 @@
         <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3000000</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3000000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>

--- a/config/data/杂项.xlsx
+++ b/config/data/杂项.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -516,7 +516,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100/200/300/400/500/600/700/800/900/1000/1100/1200/1300/1400/1500/1600/1700/1800/1900/2000/2100/2200/2300/2400/2500/2600/2700/2800/2900/3000/3100/3200/3300/3400/3500/3600/3700/3800/3900/4000</t>
+    <t>100/200/300/400/600/800/1000/1200/1400/1600/1800/2000/2200/2400/2600/2800/3000/3200/3400/3600/3800/4000/4200/4400/4600/4800/5000/5200/5400/5600/5800/6000/6200/6400/6600/6800/7000/7200/7400/7600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/config/data/杂项.xlsx
+++ b/config/data/杂项.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -504,10 +504,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20000000/50000000/100000000/150000000/200000000/250000000/300000000/350000000/400000000/450000000/500000000/600000000/700000000/800000000/900000000/1000000000/1100000000/1200000000/1300000000/1400000000/1500000000/1600000000/1700000000/1800000000/1900000000/2000000000/2100000000/2200000000/2300000000/2400000000/2500000000/2600000000/2700000000/2800000000/2900000000/3000000000/3100000000/3200000000/3300000000/3400000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0/100000000/1000000000/2000000000/4000000000/8000000000/16000000000/32000000000/64000000000/100000000000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -516,8 +512,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100/200/300/400/600/800/1000/1200/1400/1600/1800/2000/2200/2400/2600/2800/3000/3200/3400/3600/3800/4000/4200/4400/4600/4800/5000/5200/5400/5600/5800/6000/6200/6400/6600/6800/7000/7200/7400/7600</t>
+    <t>100/200/400/600/800/1000/1200/1400/1600/1800/2000/2200/2400/2600/2800/3000/3200/3400/3600/3800/4000/4200/4400/4600/4800/5000/5200/5400/5600/5800/6000/6200/6400/6600/6800/7000/7200/7400/7600/8000</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000/50000000/100000000/150000000/200000000/250000000/300000000/350000000/400000000/450000000/500000000/600000000/700000000/800000000/900000000/1000000000/1100000000/1200000000/1300000000/1400000000/1500000000/1600000000/1700000000/1800000000/1900000000/2000000000/2100000000/2200000000/2300000000/2400000000/2500000000/2600000000/2700000000/2800000000/2900000000/3000000000/3100000000/3200000000/3300000000/3400000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1045,16 +1045,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1">
@@ -1081,7 +1081,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1">

--- a/config/data/杂项.xlsx
+++ b/config/data/杂项.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -512,22 +512,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100/200/400/600/800/1000/1200/1400/1600/1800/2000/2200/2400/2600/2800/3000/3200/3400/3600/3800/4000/4200/4400/4600/4800/5000/5200/5400/5600/5800/6000/6200/6400/6600/6800/7000/7200/7400/7600/8000</t>
+    <t>100/300/500/700/900/1100/1300/1500/1700/2000/2200/2400/2600/2800/3000/3200/3400/3600/3800/4000/4200/4400/4600/4800/5000/5200/5400/5600/5800/6000/6200/6400/6600/6800/7000/7200/7400/7600/7800/8000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000000/50000000/100000000/150000000/200000000/250000000/300000000/350000000/400000000/450000000/500000000/600000000/700000000/800000000/900000000/1000000000/1100000000/1200000000/1300000000/1400000000/1500000000/1600000000/1700000000/1800000000/1900000000/2000000000/2100000000/2200000000/2300000000/2400000000/2500000000/2600000000/2700000000/2800000000/2900000000/3000000000/3100000000/3200000000/3300000000/3400000000</t>
+    <t>1000000/20000000/100000000/150000000/200000000/250000000/300000000/350000000/400000000/450000000/500000000/600000000/700000000/800000000/900000000/1000000000/1100000000/1200000000/1300000000/1400000000/1500000000/1600000000/1700000000/1800000000/1900000000/2000000000/2100000000/2200000000/2300000000/2400000000/2500000000/2600000000/2700000000/2800000000/2900000000/3000000000/3100000000/3200000000/3300000000/3400000000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,7 +715,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -789,6 +789,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -823,6 +824,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -998,21 +1000,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="93.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" customHeight="1">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1021,14 +1023,14 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1039,7 +1041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25">
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1048,7 +1050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>20</v>
@@ -1057,7 +1059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1">
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -1066,7 +1068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>18</v>
@@ -1075,7 +1077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -1084,7 +1086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -1093,7 +1095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -1102,7 +1104,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1110,7 +1112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1">
+    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1130,12 +1132,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1143,12 +1145,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
